--- a/document/GRAMデータベース設計.xlsx
+++ b/document/GRAMデータベース設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mu33/Library/Mobile Documents/com~apple~CloudDocs/GSAcademy/work/gram/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851EC7DC-0B4B-C040-9B68-7444D237F6D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE31CAF9-9E52-0F4D-940C-72EB46839283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20060" yWindow="2420" windowWidth="22720" windowHeight="20740" activeTab="4" xr2:uid="{74586241-4051-4B48-8DD0-D1D0E52540ED}"/>
+    <workbookView xWindow="5120" yWindow="3980" windowWidth="22720" windowHeight="20740" activeTab="4" xr2:uid="{74586241-4051-4B48-8DD0-D1D0E52540ED}"/>
   </bookViews>
   <sheets>
     <sheet name="gram_table" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -633,6 +633,10 @@
   </si>
   <si>
     <t xml:space="preserve">    relation VARCHAR(128) NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO `user_table_00000001`(`users_id`, `relation`) VALUES (5,"生徒")</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2370,7 +2374,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2513,7 +2517,9 @@
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4" ht="40">
-      <c r="B31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
